--- a/F16_volumen.xlsx
+++ b/F16_volumen.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="221">
-  <si>
-    <t>rangos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="220">
   <si>
     <t>individuos</t>
   </si>
@@ -168,49 +165,49 @@
     <t>45</t>
   </si>
   <si>
-    <t>[8.49e-05,0.683]</t>
-  </si>
-  <si>
-    <t>(0.683,1.37]</t>
-  </si>
-  <si>
-    <t>(1.37,2.05]</t>
-  </si>
-  <si>
-    <t>(2.05,2.73]</t>
-  </si>
-  <si>
-    <t>(2.73,3.42]</t>
-  </si>
-  <si>
-    <t>(3.42,4.1]</t>
-  </si>
-  <si>
-    <t>(4.1,4.78]</t>
-  </si>
-  <si>
-    <t>(4.78,5.46]</t>
-  </si>
-  <si>
-    <t>(5.46,6.15]</t>
-  </si>
-  <si>
-    <t>(6.15,6.83]</t>
-  </si>
-  <si>
-    <t>(6.83,7.51]</t>
-  </si>
-  <si>
-    <t>(7.51,8.2]</t>
-  </si>
-  <si>
-    <t>(8.2,8.88]</t>
-  </si>
-  <si>
-    <t>(8.88,9.56]</t>
-  </si>
-  <si>
-    <t>(9.56,10.2]</t>
+    <t>[8.49e-05,0.876]</t>
+  </si>
+  <si>
+    <t>(0.876,1.75]</t>
+  </si>
+  <si>
+    <t>(1.75,2.63]</t>
+  </si>
+  <si>
+    <t>(2.63,3.5]</t>
+  </si>
+  <si>
+    <t>(3.5,4.38]</t>
+  </si>
+  <si>
+    <t>(4.38,5.26]</t>
+  </si>
+  <si>
+    <t>(5.26,6.13]</t>
+  </si>
+  <si>
+    <t>(6.13,7.01]</t>
+  </si>
+  <si>
+    <t>(7.01,7.88]</t>
+  </si>
+  <si>
+    <t>(7.88,8.76]</t>
+  </si>
+  <si>
+    <t>(8.76,9.64]</t>
+  </si>
+  <si>
+    <t>(9.64,10.5]</t>
+  </si>
+  <si>
+    <t>(10.5,11.4]</t>
+  </si>
+  <si>
+    <t>(11.4,12.3]</t>
+  </si>
+  <si>
+    <t>(12.3,13.1]</t>
   </si>
   <si>
     <t>Total</t>
@@ -303,13 +300,13 @@
     <t>Acacio amarillo</t>
   </si>
   <si>
+    <t>Caucho benjamín</t>
+  </si>
+  <si>
     <t>Caracoli</t>
   </si>
   <si>
-    <t>Caucho benjamín</t>
-  </si>
-  <si>
-    <t>Eucalipto</t>
+    <t>Igua</t>
   </si>
   <si>
     <t>Orejero</t>
@@ -339,49 +336,49 @@
     <t>Palma africana</t>
   </si>
   <si>
-    <t>[8.49e-05,0.709]</t>
-  </si>
-  <si>
-    <t>(0.709,1.42]</t>
-  </si>
-  <si>
-    <t>(1.42,2.13]</t>
-  </si>
-  <si>
-    <t>(2.13,2.84]</t>
-  </si>
-  <si>
-    <t>(2.84,3.54]</t>
-  </si>
-  <si>
-    <t>(3.54,4.25]</t>
-  </si>
-  <si>
-    <t>(4.25,4.96]</t>
-  </si>
-  <si>
-    <t>(4.96,5.67]</t>
-  </si>
-  <si>
-    <t>(5.67,6.38]</t>
-  </si>
-  <si>
-    <t>(6.38,7.09]</t>
-  </si>
-  <si>
-    <t>(7.09,7.8]</t>
-  </si>
-  <si>
-    <t>(7.8,8.51]</t>
-  </si>
-  <si>
-    <t>(8.51,9.22]</t>
-  </si>
-  <si>
-    <t>(9.22,9.92]</t>
-  </si>
-  <si>
-    <t>(9.92,10.6]</t>
+    <t>[8.49e-05,0.909]</t>
+  </si>
+  <si>
+    <t>(0.909,1.82]</t>
+  </si>
+  <si>
+    <t>(1.82,2.73]</t>
+  </si>
+  <si>
+    <t>(2.73,3.64]</t>
+  </si>
+  <si>
+    <t>(3.64,4.55]</t>
+  </si>
+  <si>
+    <t>(4.55,5.45]</t>
+  </si>
+  <si>
+    <t>(5.45,6.36]</t>
+  </si>
+  <si>
+    <t>(6.36,7.27]</t>
+  </si>
+  <si>
+    <t>(7.27,8.18]</t>
+  </si>
+  <si>
+    <t>(8.18,9.09]</t>
+  </si>
+  <si>
+    <t>(9.09,10]</t>
+  </si>
+  <si>
+    <t>(10,10.9]</t>
+  </si>
+  <si>
+    <t>(10.9,11.8]</t>
+  </si>
+  <si>
+    <t>(11.8,12.7]</t>
+  </si>
+  <si>
+    <t>(12.7,13.6]</t>
   </si>
   <si>
     <t>[3.12e-05,0.26]</t>
@@ -462,12 +459,12 @@
     <t>(3.1,3.36]</t>
   </si>
   <si>
-    <t>Cachimbo</t>
-  </si>
-  <si>
     <t>Gualanday</t>
   </si>
   <si>
+    <t>Mango</t>
+  </si>
+  <si>
     <t>[0.000222,0.609]</t>
   </si>
   <si>
@@ -561,9 +558,6 @@
     <t>Cámbulo</t>
   </si>
   <si>
-    <t>Igua</t>
-  </si>
-  <si>
     <t>Croto o Caramelo</t>
   </si>
   <si>
@@ -576,37 +570,37 @@
     <t>Eucalipta</t>
   </si>
   <si>
-    <t>[0.00031,0.726]</t>
-  </si>
-  <si>
-    <t>(0.726,1.45]</t>
-  </si>
-  <si>
-    <t>(1.45,2.18]</t>
-  </si>
-  <si>
-    <t>(2.18,2.9]</t>
-  </si>
-  <si>
-    <t>(2.9,3.63]</t>
-  </si>
-  <si>
-    <t>(3.63,4.35]</t>
-  </si>
-  <si>
-    <t>(4.35,5.08]</t>
-  </si>
-  <si>
-    <t>(5.08,5.8]</t>
-  </si>
-  <si>
-    <t>(5.8,6.53]</t>
-  </si>
-  <si>
-    <t>(6.53,7.25]</t>
-  </si>
-  <si>
-    <t>(7.25,7.98]</t>
+    <t>[0.00031,1.24]</t>
+  </si>
+  <si>
+    <t>(1.24,2.48]</t>
+  </si>
+  <si>
+    <t>(2.48,3.72]</t>
+  </si>
+  <si>
+    <t>(3.72,4.96]</t>
+  </si>
+  <si>
+    <t>(4.96,6.19]</t>
+  </si>
+  <si>
+    <t>(6.19,7.43]</t>
+  </si>
+  <si>
+    <t>(7.43,8.67]</t>
+  </si>
+  <si>
+    <t>(8.67,9.91]</t>
+  </si>
+  <si>
+    <t>(9.91,11.1]</t>
+  </si>
+  <si>
+    <t>(11.1,12.4]</t>
+  </si>
+  <si>
+    <t>(12.4,13.6]</t>
   </si>
   <si>
     <t>[5.5e-05,0.0341]</t>
@@ -666,25 +660,28 @@
     <t>(1.71,1.9]</t>
   </si>
   <si>
-    <t>Mango</t>
+    <t>Acacia Forrajera</t>
   </si>
   <si>
     <t>Payandé</t>
   </si>
   <si>
-    <t>Acacia Forrajera</t>
-  </si>
-  <si>
     <t>Resucitado, flor grande</t>
   </si>
   <si>
     <t>Arbustos</t>
   </si>
   <si>
+    <t>rangos (m3)</t>
+  </si>
+  <si>
     <t>Palmas</t>
   </si>
   <si>
     <t>Árboles</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
   </si>
 </sst>
 </file>
@@ -1026,614 +1023,614 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>2265</v>
+        <v>2366</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>1207</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3">
         <v>586</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O4">
         <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
+      <c r="J5" t="s">
+        <v>219</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O5">
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O6">
         <v>7</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="e">
-        <v>#N/A</v>
+      <c r="J7" t="s">
+        <v>219</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7">
         <v>6</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O8">
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+      <c r="J10" t="s">
+        <v>219</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O10">
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
+      <c r="J11" t="s">
+        <v>219</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="e">
-        <v>#N/A</v>
+      <c r="J12" t="s">
+        <v>219</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" t="e">
-        <v>#N/A</v>
+      <c r="P12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
+      <c r="J13" t="s">
+        <v>219</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" t="e">
-        <v>#N/A</v>
+      <c r="P13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="e">
-        <v>#N/A</v>
+      <c r="J14" t="s">
+        <v>219</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="e">
-        <v>#N/A</v>
+      <c r="D15" t="s">
+        <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="e">
-        <v>#N/A</v>
+      <c r="J15" t="s">
+        <v>219</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16">
         <v>646</v>
       </c>
       <c r="P16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
         <v>62</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
       </c>
       <c r="I17">
         <v>1221</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>2715</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1667,614 +1664,614 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3">
-        <v>1745</v>
+        <v>1811</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3">
         <v>1117</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O3">
         <v>543</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I4">
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O4">
         <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
+      <c r="J5" t="s">
+        <v>219</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O6">
         <v>6</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="e">
-        <v>#N/A</v>
+      <c r="J7" t="s">
+        <v>219</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+      <c r="J10" t="s">
+        <v>219</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O10">
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
+      <c r="J11" t="s">
+        <v>219</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="e">
-        <v>#N/A</v>
+      <c r="J12" t="s">
+        <v>219</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" t="e">
-        <v>#N/A</v>
+      <c r="P12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
+      <c r="J13" t="s">
+        <v>219</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" t="e">
-        <v>#N/A</v>
+      <c r="P13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="e">
-        <v>#N/A</v>
+      <c r="J14" t="s">
+        <v>219</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="e">
-        <v>#N/A</v>
+      <c r="D15" t="s">
+        <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="e">
-        <v>#N/A</v>
+      <c r="J15" t="s">
+        <v>219</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16">
         <v>598</v>
       </c>
       <c r="P16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17">
         <v>1130</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>2035</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2308,466 +2305,466 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3">
         <v>518</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I3">
         <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O3">
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5">
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" t="e">
-        <v>#N/A</v>
+      <c r="P5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="e">
-        <v>#N/A</v>
+      <c r="J7" t="s">
+        <v>219</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O7">
         <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" t="e">
-        <v>#N/A</v>
+      <c r="P8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
+      <c r="J9" t="s">
+        <v>219</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" t="e">
-        <v>#N/A</v>
+      <c r="P9" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+      <c r="J10" t="s">
+        <v>219</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O11">
         <v>48</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" t="e">
-        <v>#N/A</v>
+      <c r="D13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
+      <c r="D14" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>680</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2783,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
@@ -2801,462 +2798,462 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I3">
         <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O3">
         <v>104</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O4">
         <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O5">
         <v>6</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="e">
-        <v>#N/A</v>
+      <c r="J6" t="s">
+        <v>219</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="e">
-        <v>#N/A</v>
+      <c r="J7" t="s">
+        <v>219</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" t="e">
-        <v>#N/A</v>
+      <c r="P7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="e">
-        <v>#N/A</v>
+      <c r="J8" t="s">
+        <v>219</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" t="e">
-        <v>#N/A</v>
+      <c r="P8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
+      <c r="J9" t="s">
+        <v>219</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" t="e">
-        <v>#N/A</v>
+      <c r="P9" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+      <c r="J10" t="s">
+        <v>219</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" t="e">
-        <v>#N/A</v>
+      <c r="P10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13">
         <v>127</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>238</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
